--- a/WorkPlaceSatisfactionSurveyData.xlsx
+++ b/WorkPlaceSatisfactionSurveyData.xlsx
@@ -117,7 +117,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -127,7 +127,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -143,7 +143,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -153,7 +153,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -169,7 +169,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -179,7 +179,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -237,7 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -287,7 +287,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -308,7 +308,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2544,7 +2544,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="P48" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2812,7 +2812,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="P50" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2944,7 +2944,7 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2988,7 +2988,7 @@
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -3076,7 +3076,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="6">
         <v>63</v>
       </c>

--- a/WorkPlaceSatisfactionSurveyData.xlsx
+++ b/WorkPlaceSatisfactionSurveyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Data"/>
@@ -614,7 +614,7 @@
   </sheetPr>
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2544,7 +2544,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="P48" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2812,7 +2812,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="P50" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -2900,7 +2900,7 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -2944,7 +2944,7 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -2988,7 +2988,7 @@
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -3076,7 +3076,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -4330,7 +4330,7 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/WorkPlaceSatisfactionSurveyData.xlsx
+++ b/WorkPlaceSatisfactionSurveyData.xlsx
@@ -686,143 +686,147 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" s="7">
-        <v>3587</v>
+        <v>2729</v>
       </c>
       <c r="H2" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K2" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L2" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" s="7">
-        <v>2963</v>
+        <v>3393</v>
       </c>
       <c r="H3" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L3" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G4" s="7">
-        <v>1989</v>
+        <v>5225</v>
       </c>
       <c r="H4" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L4" s="6">
-        <v>3</v>
-      </c>
-      <c r="M4" s="6">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M4" s="6"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
       <c r="P4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -831,98 +835,96 @@
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G5" s="7">
-        <v>2144</v>
+        <v>3510</v>
       </c>
       <c r="H5" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="6">
-        <v>3</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="6">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G6" s="7">
-        <v>2183</v>
+        <v>4446</v>
       </c>
       <c r="H6" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L6" s="6">
-        <v>2</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M6" s="6"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="6">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
       </c>
       <c r="E7" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>1910</v>
+        <v>2925</v>
       </c>
       <c r="H7" s="6">
         <v>4</v>
@@ -931,17 +933,15 @@
         <v>4</v>
       </c>
       <c r="J7" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K7" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L7" s="6">
         <v>4</v>
       </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="6">
         <v>1</v>
       </c>
@@ -950,98 +950,102 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>2066</v>
+        <v>2340</v>
       </c>
       <c r="H8" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="6">
         <v>5</v>
       </c>
       <c r="J8" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L8" s="6">
         <v>2</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="6">
         <v>1</v>
       </c>
-      <c r="P8" s="4"/>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7">
-        <v>2066</v>
+        <v>6278</v>
       </c>
       <c r="H9" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L9" s="6">
-        <v>3</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="6">
         <v>40</v>
@@ -1050,16 +1054,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="6">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7">
-        <v>2768</v>
+        <v>2144</v>
       </c>
       <c r="H10" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="6">
         <v>4</v>
@@ -1068,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L10" s="6">
         <v>4</v>
@@ -1080,59 +1084,59 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="6">
+        <v>51</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
         <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>33</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>16</v>
       </c>
       <c r="G11" s="7">
         <v>2106</v>
       </c>
       <c r="H11" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K11" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6">
-        <v>1</v>
-      </c>
-      <c r="N11" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B12" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
@@ -1141,130 +1145,130 @@
         <v>1</v>
       </c>
       <c r="F12" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7">
-        <v>2651</v>
+        <v>2027</v>
       </c>
       <c r="H12" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" s="6">
         <v>5</v>
       </c>
       <c r="J12" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L12" s="6">
-        <v>3</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="6">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7">
-        <v>2846</v>
+        <v>3587</v>
       </c>
       <c r="H13" s="6">
         <v>3</v>
       </c>
       <c r="I13" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="6">
         <v>3</v>
       </c>
       <c r="K13" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" s="4"/>
-      <c r="N13" s="6">
-        <v>1</v>
-      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="6">
-        <v>1</v>
-      </c>
+      <c r="P13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
       </c>
       <c r="C14" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
       </c>
       <c r="E14" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="7">
-        <v>2808</v>
+        <v>2144</v>
       </c>
       <c r="H14" s="6">
         <v>3</v>
       </c>
       <c r="I14" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="6">
         <v>3</v>
       </c>
       <c r="K14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" s="6">
-        <v>4</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="6">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="6">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -1273,84 +1277,90 @@
         <v>3</v>
       </c>
       <c r="F15" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7">
-        <v>3587</v>
+        <v>2691</v>
       </c>
       <c r="H15" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15" s="6">
         <v>3</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
       </c>
       <c r="E16" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7">
-        <v>3393</v>
+        <v>2457</v>
       </c>
       <c r="H16" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" s="6">
         <v>4</v>
       </c>
       <c r="K16" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" s="6">
-        <v>4</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="6">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B17" s="6">
         <v>2</v>
       </c>
       <c r="C17" s="6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
@@ -1359,308 +1369,302 @@
         <v>3</v>
       </c>
       <c r="F17" s="6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7">
         <v>2691</v>
       </c>
       <c r="H17" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17" s="6">
         <v>3</v>
       </c>
       <c r="L17" s="6">
-        <v>3</v>
-      </c>
-      <c r="M17" s="6">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M17" s="6"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="6">
-        <v>1</v>
-      </c>
+      <c r="P17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
       </c>
       <c r="C18" s="6">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="6">
-        <v>4</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="7">
-        <v>5225</v>
+        <v>1949</v>
       </c>
       <c r="H18" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I18" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18" s="6">
-        <v>5</v>
-      </c>
-      <c r="M18" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="6">
-        <v>1</v>
-      </c>
+      <c r="O18" s="6"/>
       <c r="P18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B19" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="6">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
       </c>
       <c r="E19" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" s="6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G19" s="7">
-        <v>2729</v>
+        <v>2925</v>
       </c>
       <c r="H19" s="6">
         <v>4</v>
       </c>
       <c r="I19" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" s="6">
         <v>4</v>
       </c>
       <c r="K19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
       </c>
       <c r="C20" s="6">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D20" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G20" s="7">
-        <v>2925</v>
+        <v>1989</v>
       </c>
       <c r="H20" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" s="6">
         <v>1</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
       <c r="P20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="6">
         <v>2</v>
       </c>
       <c r="F21" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G21" s="7">
-        <v>2457</v>
+        <v>2300</v>
       </c>
       <c r="H21" s="6">
         <v>3</v>
       </c>
       <c r="I21" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K21" s="6">
         <v>3</v>
       </c>
       <c r="L21" s="6">
-        <v>2</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M21" s="6"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="P21" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B22" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="6">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D22" s="6">
         <v>2</v>
       </c>
       <c r="E22" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G22" s="7">
-        <v>2691</v>
+        <v>2729</v>
       </c>
       <c r="H22" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" s="6">
         <v>4</v>
       </c>
       <c r="J22" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K22" s="6">
         <v>3</v>
       </c>
       <c r="L22" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
       <c r="P22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B23" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="6">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
       </c>
       <c r="E23" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="6">
         <v>17</v>
       </c>
       <c r="G23" s="7">
-        <v>4874</v>
+        <v>2417</v>
       </c>
       <c r="H23" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J23" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K23" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" s="4"/>
-      <c r="N23" s="6">
-        <v>1</v>
-      </c>
+      <c r="N23" s="6"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="P23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B24" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="6">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D24" s="6">
         <v>2</v>
@@ -1669,10 +1673,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="6">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G24" s="7">
-        <v>3510</v>
+        <v>1949</v>
       </c>
       <c r="H24" s="6">
         <v>4</v>
@@ -1684,93 +1688,97 @@
         <v>4</v>
       </c>
       <c r="K24" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24" s="6">
-        <v>4</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="6">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1</v>
+      </c>
+      <c r="N24" s="6"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="P24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
       </c>
       <c r="C25" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G25" s="7">
-        <v>4446</v>
+        <v>2495</v>
       </c>
       <c r="H25" s="6">
         <v>3</v>
       </c>
       <c r="I25" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J25" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K25" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L25" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
       </c>
       <c r="C26" s="6">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D26" s="6">
         <v>2</v>
       </c>
       <c r="E26" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="6">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G26" s="7">
-        <v>2925</v>
+        <v>3470</v>
       </c>
       <c r="H26" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K26" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26" s="6">
         <v>4</v>
@@ -1782,121 +1790,117 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B27" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="6">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D27" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="7">
-        <v>1521</v>
+        <v>2027</v>
       </c>
       <c r="H27" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I27" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K27" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" s="6">
         <v>1</v>
       </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="6">
-        <v>1</v>
-      </c>
-      <c r="P27" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="6">
+        <v>78</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6">
+        <v>22</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>3</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1598</v>
+      </c>
+      <c r="H28" s="6">
+        <v>4</v>
+      </c>
+      <c r="I28" s="6">
+        <v>4</v>
+      </c>
+      <c r="J28" s="6">
+        <v>4</v>
+      </c>
+      <c r="K28" s="6">
+        <v>3</v>
+      </c>
+      <c r="L28" s="6">
+        <v>4</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="6">
+        <v>80</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6">
-        <v>26</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
-        <v>2</v>
-      </c>
-      <c r="F28" s="6">
-        <v>2</v>
-      </c>
-      <c r="G28" s="7">
-        <v>1989</v>
-      </c>
-      <c r="H28" s="6">
-        <v>2</v>
-      </c>
-      <c r="I28" s="6">
-        <v>4</v>
-      </c>
-      <c r="J28" s="6">
-        <v>2</v>
-      </c>
-      <c r="K28" s="6">
-        <v>2</v>
-      </c>
-      <c r="L28" s="6">
-        <v>3</v>
-      </c>
-      <c r="M28" s="6">
-        <v>1</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6">
-        <v>2</v>
-      </c>
-      <c r="C29" s="6">
-        <v>56</v>
-      </c>
       <c r="D29" s="6">
         <v>1</v>
       </c>
       <c r="E29" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G29" s="7">
-        <v>2223</v>
+        <v>2612</v>
       </c>
       <c r="H29" s="6">
         <v>3</v>
@@ -1908,29 +1912,29 @@
         <v>3</v>
       </c>
       <c r="K29" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" s="6">
         <v>1</v>
       </c>
       <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="O29" s="4">
+        <v>1</v>
+      </c>
+      <c r="P29" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="6">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
       </c>
       <c r="C30" s="6">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D30" s="6">
         <v>2</v>
@@ -1939,13 +1943,13 @@
         <v>2</v>
       </c>
       <c r="F30" s="6">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G30" s="7">
         <v>2808</v>
       </c>
       <c r="H30" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" s="6">
         <v>4</v>
@@ -1954,50 +1958,52 @@
         <v>3</v>
       </c>
       <c r="K30" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30" s="6">
-        <v>4</v>
-      </c>
-      <c r="M30" s="6">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M30" s="6"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B31" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="6">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4">
+        <v>15</v>
+      </c>
       <c r="G31" s="7">
-        <v>1949</v>
+        <v>2183</v>
       </c>
       <c r="H31" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" s="6">
         <v>4</v>
       </c>
       <c r="J31" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31" s="6">
         <v>3</v>
       </c>
       <c r="L31" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31" s="6">
         <v>1</v>
@@ -2008,129 +2014,127 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="6">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="6">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6">
-        <v>21</v>
-      </c>
       <c r="D32" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G32" s="7">
-        <v>2340</v>
+        <v>1910</v>
       </c>
       <c r="H32" s="6">
         <v>4</v>
       </c>
       <c r="I32" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K32" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L32" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M32" s="6">
         <v>1</v>
       </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="6">
-        <v>1</v>
-      </c>
-      <c r="P32" s="6">
-        <v>1</v>
-      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="6">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
       </c>
       <c r="C33" s="6">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D33" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G33" s="7">
-        <v>2925</v>
+        <v>2066</v>
       </c>
       <c r="H33" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
       <c r="K33" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M33" s="4"/>
-      <c r="N33" s="6">
-        <v>1</v>
-      </c>
-      <c r="O33" s="4"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
       <c r="P33" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="6">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
       </c>
       <c r="C34" s="6">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D34" s="6">
         <v>2</v>
       </c>
       <c r="E34" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" s="6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G34" s="7">
-        <v>6278</v>
+        <v>2768</v>
       </c>
       <c r="H34" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34" s="6">
         <v>4</v>
       </c>
       <c r="J34" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K34" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L34" s="6">
         <v>4</v>
@@ -2142,122 +2146,114 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="6">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B35" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D35" s="6">
         <v>2</v>
       </c>
       <c r="E35" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" s="6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G35" s="7">
-        <v>2183</v>
+        <v>2729</v>
       </c>
       <c r="H35" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J35" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K35" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="6">
-        <v>2</v>
-      </c>
-      <c r="M35" s="6">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M35" s="6"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="P35" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="6">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
       </c>
       <c r="C36" s="6">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D36" s="6">
         <v>2</v>
       </c>
       <c r="E36" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G36" s="7">
+        <v>4874</v>
+      </c>
+      <c r="H36" s="6">
+        <v>2</v>
+      </c>
+      <c r="I36" s="6">
+        <v>4</v>
+      </c>
+      <c r="J36" s="6">
+        <v>3</v>
+      </c>
+      <c r="K36" s="6">
+        <v>2</v>
+      </c>
+      <c r="L36" s="6">
+        <v>4</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="4">
+        <v>1</v>
+      </c>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="6">
+        <v>27</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6">
+        <v>26</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2</v>
+      </c>
+      <c r="G37" s="7">
         <v>1989</v>
       </c>
-      <c r="H36" s="6">
-        <v>3</v>
-      </c>
-      <c r="I36" s="6">
-        <v>4</v>
-      </c>
-      <c r="J36" s="6">
-        <v>3</v>
-      </c>
-      <c r="K36" s="6">
-        <v>3</v>
-      </c>
-      <c r="L36" s="6">
-        <v>3</v>
-      </c>
-      <c r="M36" s="6">
-        <v>1</v>
-      </c>
-      <c r="N36" s="4"/>
-      <c r="O36" s="6">
-        <v>1</v>
-      </c>
-      <c r="P36" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6">
-        <v>31</v>
-      </c>
-      <c r="D37" s="6">
-        <v>2</v>
-      </c>
-      <c r="E37" s="6">
-        <v>3</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7">
-        <v>1559</v>
-      </c>
       <c r="H37" s="6">
         <v>2</v>
       </c>
@@ -2265,10 +2261,10 @@
         <v>4</v>
       </c>
       <c r="J37" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" s="6">
         <v>3</v>
@@ -2278,11 +2274,13 @@
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="P37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="6">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B38" s="6">
         <v>2</v>
@@ -2291,33 +2289,35 @@
         <v>56</v>
       </c>
       <c r="D38" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G38" s="7">
-        <v>2729</v>
+        <v>2223</v>
       </c>
       <c r="H38" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I38" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K38" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L38" s="6">
-        <v>5</v>
-      </c>
-      <c r="M38" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="M38" s="4">
+        <v>1</v>
+      </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="6">
@@ -2326,125 +2326,127 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="6">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B39" s="6">
         <v>1</v>
       </c>
       <c r="C39" s="6">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G39" s="7">
-        <v>2027</v>
+        <v>2846</v>
       </c>
       <c r="H39" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I39" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J39" s="6">
         <v>4</v>
       </c>
       <c r="K39" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M39" s="6">
         <v>1</v>
       </c>
-      <c r="N39" s="6">
-        <v>1</v>
-      </c>
+      <c r="N39" s="6"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="6">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B40" s="6">
         <v>1</v>
       </c>
       <c r="C40" s="6">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D40" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="6">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G40" s="7">
-        <v>2300</v>
+        <v>2651</v>
       </c>
       <c r="H40" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40" s="6">
         <v>5</v>
       </c>
       <c r="J40" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K40" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L40" s="6">
         <v>4</v>
       </c>
-      <c r="M40" s="4"/>
+      <c r="M40" s="4">
+        <v>1</v>
+      </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
+      <c r="P40" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="6">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B41" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="6">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D41" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G41" s="7">
-        <v>2106</v>
+        <v>1989</v>
       </c>
       <c r="H41" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J41" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K41" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" s="6">
         <v>3</v>
@@ -2454,38 +2456,40 @@
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="6">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
       </c>
       <c r="C42" s="6">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D42" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="6">
         <v>3</v>
       </c>
       <c r="F42" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G42" s="7">
-        <v>2846</v>
+        <v>2340</v>
       </c>
       <c r="H42" s="6">
         <v>3</v>
       </c>
       <c r="I42" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K42" s="6">
         <v>2</v>
@@ -2502,113 +2506,111 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="6">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
       </c>
       <c r="C43" s="6">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D43" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G43" s="7">
-        <v>2534</v>
+        <v>2261</v>
       </c>
       <c r="H43" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I43" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J43" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K43" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" s="6">
-        <v>2</v>
-      </c>
-      <c r="M43" s="6">
-        <v>1</v>
-      </c>
-      <c r="N43" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="M43" s="6"/>
+      <c r="N43" s="4">
+        <v>1</v>
+      </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="6">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B44" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D44" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" s="6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G44" s="7">
-        <v>2144</v>
+        <v>2261</v>
       </c>
       <c r="H44" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" s="6">
         <v>4</v>
       </c>
       <c r="J44" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K44" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L44" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" s="4"/>
-      <c r="N44" s="6">
-        <v>1</v>
-      </c>
+      <c r="N44" s="6"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="6">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B45" s="6">
         <v>1</v>
       </c>
       <c r="C45" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D45" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G45" s="7">
-        <v>2223</v>
+        <v>1872</v>
       </c>
       <c r="H45" s="6">
         <v>2</v>
@@ -2617,10 +2619,10 @@
         <v>3</v>
       </c>
       <c r="J45" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K45" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45" s="6">
         <v>3</v>
@@ -2630,86 +2632,82 @@
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="6">
-        <v>1</v>
-      </c>
+      <c r="P45" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="6">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B46" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="6">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D46" s="6">
         <v>2</v>
       </c>
       <c r="E46" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="6">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G46" s="7">
-        <v>2651</v>
+        <v>1872</v>
       </c>
       <c r="H46" s="6">
         <v>4</v>
       </c>
       <c r="I46" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J46" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K46" s="6">
         <v>2</v>
       </c>
       <c r="L46" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M46" s="6">
         <v>1</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="6">
-        <v>1</v>
-      </c>
+      <c r="P46" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="6">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B47" s="6">
         <v>2</v>
       </c>
       <c r="C47" s="6">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D47" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="6">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G47" s="7">
-        <v>1989</v>
+        <v>1715</v>
       </c>
       <c r="H47" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I47" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J47" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47" s="6">
         <v>2</v>
@@ -2728,99 +2726,107 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="6">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B48" s="6">
         <v>2</v>
       </c>
       <c r="C48" s="6">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D48" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" s="6">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G48" s="7">
-        <v>1872</v>
+        <v>2691</v>
       </c>
       <c r="H48" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J48" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K48" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" s="6">
-        <v>3</v>
-      </c>
-      <c r="M48" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="M48" s="4">
+        <v>1</v>
+      </c>
       <c r="N48" s="4"/>
-      <c r="O48" s="6">
-        <v>1</v>
-      </c>
-      <c r="P48" s="4"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="6">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B49" s="6">
         <v>1</v>
       </c>
       <c r="C49" s="6">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D49" s="6">
         <v>2</v>
       </c>
       <c r="E49" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49" s="6">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G49" s="7">
-        <v>2183</v>
+        <v>5069</v>
       </c>
       <c r="H49" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J49" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K49" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" s="6">
-        <v>3</v>
-      </c>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="M49" s="4">
+        <v>1</v>
+      </c>
+      <c r="N49" s="4">
+        <v>1</v>
+      </c>
       <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
+      <c r="P49" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="6">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B50" s="6">
         <v>1</v>
       </c>
       <c r="C50" s="6">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D50" s="6">
         <v>2</v>
@@ -2829,13 +2835,13 @@
         <v>2</v>
       </c>
       <c r="F50" s="6">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G50" s="7">
-        <v>2729</v>
+        <v>3119</v>
       </c>
       <c r="H50" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50" s="6">
         <v>4</v>
@@ -2844,21 +2850,25 @@
         <v>3</v>
       </c>
       <c r="K50" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L50" s="6">
-        <v>5</v>
-      </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="6">
-        <v>1</v>
-      </c>
-      <c r="P50" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+        <v>2</v>
+      </c>
+      <c r="M50" s="4">
+        <v>1</v>
+      </c>
+      <c r="N50" s="4">
+        <v>1</v>
+      </c>
+      <c r="O50" s="6"/>
+      <c r="P50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="6">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B51" s="6">
         <v>1</v>
@@ -2867,163 +2877,161 @@
         <v>29</v>
       </c>
       <c r="D51" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G51" s="7">
-        <v>2340</v>
+        <v>2963</v>
       </c>
       <c r="H51" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J51" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51" s="6">
         <v>3</v>
       </c>
-      <c r="M51" s="6">
-        <v>1</v>
-      </c>
+      <c r="M51" s="6"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="6">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B52" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="6">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D52" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G52" s="7">
-        <v>2106</v>
+        <v>1989</v>
       </c>
       <c r="H52" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J52" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K52" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L52" s="6">
-        <v>5</v>
-      </c>
-      <c r="M52" s="4"/>
-      <c r="N52" s="6">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M52" s="4">
+        <v>1</v>
+      </c>
+      <c r="N52" s="6"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="6">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B53" s="6">
         <v>1</v>
       </c>
       <c r="C53" s="6">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D53" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="6">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G53" s="7">
-        <v>2261</v>
+        <v>2183</v>
       </c>
       <c r="H53" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I53" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J53" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K53" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L53" s="6">
-        <v>5</v>
-      </c>
-      <c r="M53" s="4"/>
-      <c r="N53" s="6">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M53" s="4">
+        <v>1</v>
+      </c>
+      <c r="N53" s="6"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="6">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B54" s="6">
         <v>1</v>
       </c>
       <c r="C54" s="6">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D54" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
       </c>
       <c r="F54" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G54" s="7">
-        <v>1989</v>
+        <v>2066</v>
       </c>
       <c r="H54" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I54" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J54" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K54" s="6">
         <v>1</v>
       </c>
       <c r="L54" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M54" s="6">
         <v>1</v>
@@ -3032,42 +3040,42 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="6">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B55" s="6">
         <v>1</v>
       </c>
       <c r="C55" s="6">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D55" s="6">
         <v>1</v>
       </c>
       <c r="E55" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G55" s="7">
-        <v>1559</v>
+        <v>2106</v>
       </c>
       <c r="H55" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J55" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K55" s="6">
         <v>1</v>
       </c>
       <c r="L55" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" s="6">
         <v>1</v>
@@ -3076,15 +3084,15 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="6">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B56" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="6">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D56" s="6">
         <v>2</v>
@@ -3093,10 +3101,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G56" s="7">
-        <v>2417</v>
+        <v>2651</v>
       </c>
       <c r="H56" s="6">
         <v>3</v>
@@ -3105,10 +3113,10 @@
         <v>5</v>
       </c>
       <c r="J56" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K56" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L56" s="6">
         <v>3</v>
@@ -3116,216 +3124,216 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
-      <c r="P56" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="P56" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="6">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B57" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="6">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D57" s="6">
         <v>2</v>
       </c>
       <c r="E57" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" s="6">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G57" s="7">
-        <v>1949</v>
+        <v>2846</v>
       </c>
       <c r="H57" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J57" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K57" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L57" s="6">
-        <v>3</v>
-      </c>
-      <c r="M57" s="6">
-        <v>1</v>
-      </c>
-      <c r="N57" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="M57" s="6"/>
+      <c r="N57" s="4">
+        <v>1</v>
+      </c>
       <c r="O57" s="4"/>
       <c r="P57" s="6">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="6">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B58" s="6">
         <v>1</v>
       </c>
       <c r="C58" s="6">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D58" s="6">
         <v>2</v>
       </c>
       <c r="E58" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="6">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G58" s="7">
-        <v>3119</v>
+        <v>2808</v>
       </c>
       <c r="H58" s="6">
-        <v>2</v>
-      </c>
-      <c r="I58" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="I58" s="4">
+        <v>5</v>
+      </c>
       <c r="J58" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K58" s="6">
         <v>1</v>
       </c>
       <c r="L58" s="6">
-        <v>5</v>
-      </c>
-      <c r="M58" s="6">
-        <v>1</v>
-      </c>
-      <c r="N58" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="M58" s="6"/>
+      <c r="N58" s="4">
+        <v>1</v>
+      </c>
       <c r="O58" s="4"/>
-      <c r="P58" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="P58" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="6">
+        <v>14</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="6">
-        <v>1</v>
-      </c>
-      <c r="C59" s="6">
-        <v>38</v>
-      </c>
       <c r="D59" s="6">
         <v>2</v>
       </c>
       <c r="E59" s="6">
-        <v>2</v>
-      </c>
-      <c r="F59" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F59" s="4">
+        <v>21</v>
+      </c>
       <c r="G59" s="7">
-        <v>2574</v>
+        <v>3587</v>
       </c>
       <c r="H59" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I59" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J59" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K59" s="6">
         <v>1</v>
       </c>
       <c r="L59" s="6">
-        <v>2</v>
-      </c>
-      <c r="M59" s="6">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M59" s="6"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
-      <c r="P59" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="P59" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="6">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B60" s="6">
         <v>1</v>
       </c>
       <c r="C60" s="6">
+        <v>42</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="6">
+        <v>3</v>
+      </c>
+      <c r="F60" s="6">
         <v>20</v>
       </c>
-      <c r="D60" s="6">
-        <v>1</v>
-      </c>
-      <c r="E60" s="6">
-        <v>2</v>
-      </c>
-      <c r="F60" s="6">
-        <v>1</v>
-      </c>
       <c r="G60" s="7">
-        <v>2261</v>
+        <v>2925</v>
       </c>
       <c r="H60" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J60" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K60" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60" s="6">
-        <v>3</v>
-      </c>
-      <c r="M60" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="M60" s="4">
+        <v>1</v>
+      </c>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="P60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="6">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B61" s="6">
         <v>1</v>
       </c>
       <c r="C61" s="6">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D61" s="6">
         <v>1</v>
       </c>
       <c r="E61" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G61" s="7">
-        <v>2144</v>
+        <v>1521</v>
       </c>
       <c r="H61" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I61" s="6">
         <v>4</v>
       </c>
       <c r="J61" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K61" s="6">
         <v>1</v>
@@ -3337,45 +3345,49 @@
         <v>1</v>
       </c>
       <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="O61" s="4">
+        <v>1</v>
+      </c>
+      <c r="P61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="6">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B62" s="6">
         <v>1</v>
       </c>
       <c r="C62" s="6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D62" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G62" s="7">
-        <v>2183</v>
+        <v>2808</v>
       </c>
       <c r="H62" s="6">
         <v>2</v>
       </c>
       <c r="I62" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J62" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K62" s="6">
         <v>1</v>
       </c>
       <c r="L62" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M62" s="6">
         <v>1</v>
@@ -3386,13 +3398,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="6">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B63" s="6">
         <v>1</v>
       </c>
       <c r="C63" s="6">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D63" s="6">
         <v>2</v>
@@ -3401,66 +3413,68 @@
         <v>1</v>
       </c>
       <c r="F63" s="6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G63" s="7">
-        <v>1872</v>
+        <v>2183</v>
       </c>
       <c r="H63" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J63" s="6">
         <v>1</v>
       </c>
       <c r="K63" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M63" s="6">
         <v>1</v>
       </c>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
+      <c r="P63" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="6">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B64" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="6">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D64" s="6">
         <v>2</v>
       </c>
       <c r="E64" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G64" s="7">
-        <v>1872</v>
+        <v>1559</v>
       </c>
       <c r="H64" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I64" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J64" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K64" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" s="6">
         <v>3</v>
@@ -3474,185 +3488,179 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="6">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B65" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="6">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D65" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" s="6">
         <v>1</v>
       </c>
       <c r="G65" s="7">
-        <v>1715</v>
+        <v>2027</v>
       </c>
       <c r="H65" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I65" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J65" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K65" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M65" s="6">
         <v>1</v>
       </c>
-      <c r="N65" s="4"/>
+      <c r="N65" s="4">
+        <v>1</v>
+      </c>
       <c r="O65" s="4"/>
-      <c r="P65" s="6">
-        <v>1</v>
-      </c>
+      <c r="P65" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="6">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B66" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="6">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D66" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="6">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G66" s="7">
-        <v>2691</v>
+        <v>2106</v>
       </c>
       <c r="H66" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I66" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J66" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K66" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M66" s="6">
         <v>1</v>
       </c>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
-      <c r="P66" s="6">
-        <v>1</v>
-      </c>
+      <c r="P66" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="6">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B67" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="6">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D67" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="6">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G67" s="7">
-        <v>2027</v>
+        <v>2534</v>
       </c>
       <c r="H67" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I67" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J67" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K67" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L67" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M67" s="6">
         <v>1</v>
       </c>
-      <c r="N67" s="6">
-        <v>1</v>
-      </c>
+      <c r="N67" s="6"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="6">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B68" s="6">
         <v>1</v>
       </c>
       <c r="C68" s="6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D68" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G68" s="7">
-        <v>5069</v>
+        <v>2223</v>
       </c>
       <c r="H68" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J68" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K68" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M68" s="6">
         <v>1</v>
       </c>
-      <c r="N68" s="6">
-        <v>1</v>
-      </c>
+      <c r="N68" s="6"/>
       <c r="O68" s="4"/>
       <c r="P68" s="6">
         <v>1</v>
@@ -3660,67 +3668,69 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="6">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B69" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" s="6">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D69" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="6">
         <v>3</v>
       </c>
       <c r="F69" s="6">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G69" s="7">
-        <v>2417</v>
+        <v>1872</v>
       </c>
       <c r="H69" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J69" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K69" s="6">
         <v>1</v>
       </c>
       <c r="L69" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
+      <c r="O69" s="4">
+        <v>1</v>
+      </c>
       <c r="P69" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="6">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B70" s="6">
         <v>1</v>
       </c>
       <c r="C70" s="6">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D70" s="6">
         <v>2</v>
       </c>
       <c r="E70" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G70" s="7">
-        <v>3510</v>
+        <v>2183</v>
       </c>
       <c r="H70" s="6">
         <v>4</v>
@@ -3729,13 +3739,13 @@
         <v>5</v>
       </c>
       <c r="J70" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K70" s="6">
         <v>1</v>
       </c>
       <c r="L70" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -3744,64 +3754,60 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="6">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B71" s="6">
         <v>1</v>
       </c>
       <c r="C71" s="6">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D71" s="6">
         <v>2</v>
       </c>
       <c r="E71" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" s="6">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G71" s="7">
-        <v>3119</v>
+        <v>1989</v>
       </c>
       <c r="H71" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J71" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K71" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L71" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71" s="6">
         <v>1</v>
       </c>
-      <c r="N71" s="6">
-        <v>1</v>
-      </c>
+      <c r="N71" s="6"/>
       <c r="O71" s="4"/>
-      <c r="P71" s="6">
-        <v>1</v>
-      </c>
+      <c r="P71" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="6">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B72" s="6">
         <v>1</v>
       </c>
       <c r="C72" s="6">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D72" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="6">
         <v>2</v>
@@ -3810,39 +3816,39 @@
         <v>1</v>
       </c>
       <c r="G72" s="7">
-        <v>2495</v>
+        <v>1559</v>
       </c>
       <c r="H72" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J72" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L72" s="6">
-        <v>4</v>
-      </c>
-      <c r="M72" s="4"/>
-      <c r="N72" s="6">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M72" s="4">
+        <v>1</v>
+      </c>
+      <c r="N72" s="6"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="6">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B73" s="6">
         <v>1</v>
       </c>
       <c r="C73" s="6">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D73" s="6">
         <v>2</v>
@@ -3851,107 +3857,107 @@
         <v>2</v>
       </c>
       <c r="F73" s="6">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G73" s="7">
-        <v>3470</v>
+        <v>3119</v>
       </c>
       <c r="H73" s="6">
-        <v>3</v>
-      </c>
-      <c r="I73" s="6">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I73" s="6"/>
       <c r="J73" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K73" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L73" s="6">
-        <v>4</v>
-      </c>
-      <c r="M73" s="4"/>
-      <c r="N73" s="6">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M73" s="4">
+        <v>1</v>
+      </c>
+      <c r="N73" s="6"/>
       <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
+      <c r="P73" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="6">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B74" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" s="6">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D74" s="6">
         <v>2</v>
       </c>
       <c r="E74" s="6">
-        <v>3</v>
-      </c>
-      <c r="F74" s="6">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F74" s="6"/>
       <c r="G74" s="7">
-        <v>2027</v>
+        <v>2574</v>
       </c>
       <c r="H74" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I74" s="6">
         <v>3</v>
       </c>
       <c r="J74" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K74" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L74" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M74" s="6">
         <v>1</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
+      <c r="P74" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="6">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B75" s="6">
         <v>1</v>
       </c>
       <c r="C75" s="6">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D75" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
       </c>
       <c r="F75" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="7">
-        <v>2846</v>
+        <v>2144</v>
       </c>
       <c r="H75" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I75" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J75" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K75" s="6">
         <v>1</v>
@@ -3968,13 +3974,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="6">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B76" s="6">
         <v>1</v>
       </c>
       <c r="C76" s="6">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -3983,16 +3989,16 @@
         <v>1</v>
       </c>
       <c r="F76" s="6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G76" s="7">
-        <v>1949</v>
+        <v>2183</v>
       </c>
       <c r="H76" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J76" s="6">
         <v>1</v>
@@ -4001,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M76" s="6">
         <v>1</v>
@@ -4012,69 +4018,67 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="6">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B77" s="6">
         <v>1</v>
       </c>
       <c r="C77" s="6">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D77" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" s="6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G77" s="7">
-        <v>1598</v>
+        <v>2417</v>
       </c>
       <c r="H77" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J77" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K77" s="6">
         <v>1</v>
       </c>
       <c r="L77" s="6">
-        <v>1</v>
-      </c>
-      <c r="M77" s="6">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M77" s="6"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="6">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B78" s="6">
         <v>1</v>
       </c>
       <c r="C78" s="6">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D78" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="6">
         <v>2</v>
       </c>
       <c r="F78" s="6">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G78" s="7">
-        <v>2183</v>
+        <v>3510</v>
       </c>
       <c r="H78" s="6">
         <v>4</v>
@@ -4089,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -4098,59 +4102,57 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="6">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B79" s="6">
         <v>1</v>
       </c>
       <c r="C79" s="6">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D79" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G79" s="7">
-        <v>1598</v>
+        <v>2846</v>
       </c>
       <c r="H79" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J79" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K79" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L79" s="6">
-        <v>4</v>
-      </c>
-      <c r="M79" s="4"/>
-      <c r="N79" s="6">
-        <v>1</v>
-      </c>
-      <c r="O79" s="6">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M79" s="4">
+        <v>1</v>
+      </c>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
       <c r="P79" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="6">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B80" s="6">
         <v>1</v>
       </c>
       <c r="C80" s="6">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
@@ -4159,25 +4161,25 @@
         <v>1</v>
       </c>
       <c r="F80" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" s="7">
-        <v>1638</v>
+        <v>1949</v>
       </c>
       <c r="H80" s="6">
         <v>1</v>
       </c>
       <c r="I80" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J80" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K80" s="6">
         <v>1</v>
       </c>
       <c r="L80" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M80" s="6">
         <v>1</v>
@@ -4188,13 +4190,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="6">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B81" s="6">
         <v>1</v>
       </c>
       <c r="C81" s="6">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -4203,71 +4205,69 @@
         <v>2</v>
       </c>
       <c r="F81" s="6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G81" s="7">
-        <v>2612</v>
+        <v>1598</v>
       </c>
       <c r="H81" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I81" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J81" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K81" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L81" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M81" s="6">
         <v>1</v>
       </c>
       <c r="N81" s="4"/>
-      <c r="O81" s="6">
-        <v>1</v>
-      </c>
+      <c r="O81" s="6"/>
       <c r="P81" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="6">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B82" s="6">
         <v>1</v>
       </c>
       <c r="C82" s="6">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D82" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="6">
         <v>2</v>
       </c>
       <c r="F82" s="6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G82" s="7">
-        <v>2808</v>
+        <v>2183</v>
       </c>
       <c r="H82" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I82" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J82" s="6">
         <v>3</v>
       </c>
       <c r="K82" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L82" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
@@ -4276,40 +4276,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="6">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B83" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D83" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83" s="6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G83" s="7">
-        <v>2183</v>
+        <v>1638</v>
       </c>
       <c r="H83" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J83" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K83" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L83" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M83" s="6">
         <v>1</v>
@@ -4334,9 +4334,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="73.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="32.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="55.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="81.57642857142856" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>

--- a/WorkPlaceSatisfactionSurveyData.xlsx
+++ b/WorkPlaceSatisfactionSurveyData.xlsx
@@ -686,147 +686,143 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="6">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G2" s="7">
-        <v>2729</v>
+        <v>3587</v>
       </c>
       <c r="H2" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4">
-        <v>1</v>
-      </c>
+      <c r="P2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
       </c>
       <c r="E3" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>3393</v>
+        <v>2963</v>
       </c>
       <c r="H3" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L3" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="4">
-        <v>1</v>
-      </c>
+      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="6">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G4" s="7">
-        <v>5225</v>
+        <v>1989</v>
       </c>
       <c r="H4" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L4" s="6">
-        <v>5</v>
-      </c>
-      <c r="M4" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
       <c r="N4" s="4"/>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
+      <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="6">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -835,96 +831,98 @@
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7">
-        <v>3510</v>
+        <v>2144</v>
       </c>
       <c r="H5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" s="6">
-        <v>4</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="4">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
         <v>24</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>36</v>
-      </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" s="7">
-        <v>4446</v>
+        <v>2183</v>
       </c>
       <c r="H6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L6" s="6">
-        <v>5</v>
-      </c>
-      <c r="M6" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="6">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
       </c>
       <c r="E7" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7">
-        <v>2925</v>
+        <v>1910</v>
       </c>
       <c r="H7" s="6">
         <v>4</v>
@@ -933,15 +931,17 @@
         <v>4</v>
       </c>
       <c r="J7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7" s="6">
         <v>4</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
       <c r="N7" s="6">
         <v>1</v>
       </c>
@@ -950,102 +950,98 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="6">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7">
-        <v>2340</v>
+        <v>2066</v>
       </c>
       <c r="H8" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" s="6">
         <v>5</v>
       </c>
       <c r="J8" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L8" s="6">
         <v>2</v>
       </c>
-      <c r="M8" s="4">
-        <v>1</v>
-      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="6">
         <v>1</v>
       </c>
-      <c r="P8" s="4">
-        <v>1</v>
-      </c>
+      <c r="P8" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="6">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7">
-        <v>6278</v>
+        <v>2066</v>
       </c>
       <c r="H9" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9" s="6">
-        <v>4</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="6">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="6">
         <v>40</v>
@@ -1054,16 +1050,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="6">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G10" s="7">
-        <v>2144</v>
+        <v>2768</v>
       </c>
       <c r="H10" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="6">
         <v>4</v>
@@ -1072,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L10" s="6">
         <v>4</v>
@@ -1084,59 +1080,59 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="6">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7">
         <v>2106</v>
       </c>
       <c r="H11" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J11" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K11" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L11" s="6">
-        <v>5</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="6">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
@@ -1145,130 +1141,130 @@
         <v>1</v>
       </c>
       <c r="F12" s="6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7">
-        <v>2027</v>
+        <v>2651</v>
       </c>
       <c r="H12" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" s="6">
         <v>5</v>
       </c>
       <c r="J12" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L12" s="6">
-        <v>5</v>
-      </c>
-      <c r="M12" s="4">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="6">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7">
-        <v>3587</v>
+        <v>2846</v>
       </c>
       <c r="H13" s="6">
         <v>3</v>
       </c>
       <c r="I13" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" s="6">
         <v>3</v>
       </c>
       <c r="K13" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13" s="4"/>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
       <c r="O13" s="4"/>
-      <c r="P13" s="6"/>
+      <c r="P13" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
       </c>
       <c r="C14" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
       </c>
       <c r="E14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="7">
-        <v>2144</v>
+        <v>2808</v>
       </c>
       <c r="H14" s="6">
         <v>3</v>
       </c>
       <c r="I14" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="6">
         <v>3</v>
       </c>
       <c r="K14" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14" s="6">
-        <v>3</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1</v>
-      </c>
-      <c r="N14" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="6">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -1277,90 +1273,84 @@
         <v>3</v>
       </c>
       <c r="F15" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7">
-        <v>2691</v>
+        <v>3587</v>
       </c>
       <c r="H15" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15" s="6">
         <v>3</v>
       </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
+      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4">
-        <v>1</v>
-      </c>
+      <c r="P15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="6">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
       </c>
       <c r="E16" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7">
-        <v>2457</v>
+        <v>3393</v>
       </c>
       <c r="H16" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="6">
         <v>4</v>
       </c>
       <c r="K16" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" s="6">
-        <v>2</v>
-      </c>
-      <c r="M16" s="4">
-        <v>1</v>
-      </c>
-      <c r="N16" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
       <c r="O16" s="4"/>
-      <c r="P16" s="4">
-        <v>1</v>
-      </c>
+      <c r="P16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>2</v>
       </c>
       <c r="C17" s="6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
@@ -1369,302 +1359,308 @@
         <v>3</v>
       </c>
       <c r="F17" s="6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G17" s="7">
         <v>2691</v>
       </c>
       <c r="H17" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" s="6">
         <v>3</v>
       </c>
       <c r="L17" s="6">
-        <v>4</v>
-      </c>
-      <c r="M17" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="6"/>
+      <c r="P17" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="6">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
       </c>
       <c r="C18" s="6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
       <c r="G18" s="7">
-        <v>1949</v>
+        <v>5225</v>
       </c>
       <c r="H18" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18" s="6">
-        <v>2</v>
-      </c>
-      <c r="M18" s="4">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="6"/>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
       <c r="P18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="6">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="6">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
       </c>
       <c r="E19" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" s="6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G19" s="7">
-        <v>2925</v>
+        <v>2729</v>
       </c>
       <c r="H19" s="6">
         <v>4</v>
       </c>
       <c r="I19" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" s="6">
         <v>4</v>
       </c>
       <c r="K19" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M19" s="4"/>
-      <c r="N19" s="4">
-        <v>1</v>
-      </c>
+      <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="6">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
       </c>
       <c r="C20" s="6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D20" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7">
-        <v>1989</v>
+        <v>2925</v>
       </c>
       <c r="H20" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" s="6">
         <v>1</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="4">
-        <v>1</v>
-      </c>
+      <c r="O20" s="4"/>
       <c r="P20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="6">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D21" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="6">
         <v>2</v>
       </c>
       <c r="F21" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7">
-        <v>2300</v>
+        <v>2457</v>
       </c>
       <c r="H21" s="6">
         <v>3</v>
       </c>
       <c r="I21" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J21" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" s="6">
         <v>3</v>
       </c>
       <c r="L21" s="6">
-        <v>4</v>
-      </c>
-      <c r="M21" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="P21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="6">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="6">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D22" s="6">
         <v>2</v>
       </c>
       <c r="E22" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G22" s="7">
-        <v>2729</v>
+        <v>2691</v>
       </c>
       <c r="H22" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I22" s="6">
         <v>4</v>
       </c>
       <c r="J22" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K22" s="6">
         <v>3</v>
       </c>
       <c r="L22" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="4">
-        <v>1</v>
-      </c>
+      <c r="O22" s="4"/>
       <c r="P22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="6">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
       </c>
       <c r="E23" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="6">
         <v>17</v>
       </c>
       <c r="G23" s="7">
-        <v>2417</v>
+        <v>4874</v>
       </c>
       <c r="H23" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" s="4"/>
-      <c r="N23" s="6"/>
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
       <c r="O23" s="4"/>
-      <c r="P23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="P23" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="6">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="6">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D24" s="6">
         <v>2</v>
@@ -1673,10 +1669,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="6">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G24" s="7">
-        <v>1949</v>
+        <v>3510</v>
       </c>
       <c r="H24" s="6">
         <v>4</v>
@@ -1688,97 +1684,93 @@
         <v>4</v>
       </c>
       <c r="K24" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" s="6">
-        <v>3</v>
-      </c>
-      <c r="M24" s="4">
-        <v>1</v>
-      </c>
-      <c r="N24" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
       <c r="O24" s="4"/>
-      <c r="P24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="P24" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="6">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
       </c>
       <c r="C25" s="6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G25" s="7">
-        <v>2495</v>
+        <v>4446</v>
       </c>
       <c r="H25" s="6">
         <v>3</v>
       </c>
       <c r="I25" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K25" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" s="4"/>
-      <c r="N25" s="4">
-        <v>1</v>
-      </c>
+      <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="6">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
       </c>
       <c r="C26" s="6">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D26" s="6">
         <v>2</v>
       </c>
       <c r="E26" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="6">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G26" s="7">
-        <v>3470</v>
+        <v>2925</v>
       </c>
       <c r="H26" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K26" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" s="6">
         <v>4</v>
@@ -1790,117 +1782,121 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="6">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="6">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="7">
-        <v>2027</v>
+        <v>1521</v>
       </c>
       <c r="H27" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I27" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K27" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M27" s="6">
         <v>1</v>
       </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="O27" s="6">
+        <v>1</v>
+      </c>
+      <c r="P27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="6">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
       </c>
       <c r="C28" s="6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
       </c>
       <c r="E28" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="7">
-        <v>1598</v>
+        <v>1989</v>
       </c>
       <c r="H28" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" s="6">
         <v>4</v>
       </c>
       <c r="J28" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K28" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28" s="6">
-        <v>4</v>
-      </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="4">
-        <v>1</v>
-      </c>
-      <c r="O28" s="4">
-        <v>1</v>
-      </c>
-      <c r="P28" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+        <v>3</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="6">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="6">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
       </c>
       <c r="E29" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G29" s="7">
-        <v>2612</v>
+        <v>2223</v>
       </c>
       <c r="H29" s="6">
         <v>3</v>
@@ -1912,29 +1908,29 @@
         <v>3</v>
       </c>
       <c r="K29" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" s="6">
         <v>1</v>
       </c>
       <c r="N29" s="4"/>
-      <c r="O29" s="4">
-        <v>1</v>
-      </c>
-      <c r="P29" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="O29" s="4"/>
+      <c r="P29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="6">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
       </c>
       <c r="C30" s="6">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D30" s="6">
         <v>2</v>
@@ -1943,13 +1939,13 @@
         <v>2</v>
       </c>
       <c r="F30" s="6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G30" s="7">
         <v>2808</v>
       </c>
       <c r="H30" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="6">
         <v>4</v>
@@ -1958,52 +1954,50 @@
         <v>3</v>
       </c>
       <c r="K30" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30" s="6">
-        <v>3</v>
-      </c>
-      <c r="M30" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="M30" s="6">
+        <v>1</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="6">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="6">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D31" s="6">
-        <v>2</v>
-      </c>
-      <c r="E31" s="4">
-        <v>3</v>
-      </c>
-      <c r="F31" s="4">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="7">
-        <v>2183</v>
+        <v>1949</v>
       </c>
       <c r="H31" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31" s="6">
         <v>4</v>
       </c>
       <c r="J31" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31" s="6">
         <v>3</v>
       </c>
       <c r="L31" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M31" s="6">
         <v>1</v>
@@ -2014,127 +2008,129 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="6">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="6">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D32" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G32" s="7">
-        <v>1910</v>
+        <v>2340</v>
       </c>
       <c r="H32" s="6">
         <v>4</v>
       </c>
       <c r="I32" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L32" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M32" s="6">
         <v>1</v>
       </c>
-      <c r="N32" s="4">
-        <v>1</v>
-      </c>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="6">
+        <v>1</v>
+      </c>
+      <c r="P32" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="6">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
       </c>
       <c r="C33" s="6">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D33" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G33" s="7">
-        <v>2066</v>
+        <v>2925</v>
       </c>
       <c r="H33" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
       <c r="K33" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M33" s="4"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="4">
-        <v>1</v>
-      </c>
+      <c r="N33" s="6">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4"/>
       <c r="P33" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="6">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
       </c>
       <c r="C34" s="6">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D34" s="6">
         <v>2</v>
       </c>
       <c r="E34" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="6">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G34" s="7">
-        <v>2768</v>
+        <v>6278</v>
       </c>
       <c r="H34" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I34" s="6">
         <v>4</v>
       </c>
       <c r="J34" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K34" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L34" s="6">
         <v>4</v>
@@ -2146,72 +2142,76 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="6">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="6">
         <v>2</v>
       </c>
       <c r="E35" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" s="6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G35" s="7">
-        <v>2729</v>
+        <v>2183</v>
       </c>
       <c r="H35" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I35" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J35" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K35" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" s="6">
-        <v>1</v>
-      </c>
-      <c r="M35" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="M35" s="6">
+        <v>1</v>
+      </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="P35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="6">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
       </c>
       <c r="C36" s="6">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D36" s="6">
         <v>2</v>
       </c>
       <c r="E36" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" s="6">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G36" s="7">
-        <v>4874</v>
+        <v>1989</v>
       </c>
       <c r="H36" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36" s="6">
         <v>4</v>
@@ -2220,39 +2220,43 @@
         <v>3</v>
       </c>
       <c r="K36" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36" s="6">
-        <v>4</v>
-      </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="4">
-        <v>1</v>
-      </c>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+        <v>3</v>
+      </c>
+      <c r="M36" s="6">
+        <v>1</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="6">
+        <v>1</v>
+      </c>
+      <c r="P36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="6">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B37" s="6">
         <v>1</v>
       </c>
       <c r="C37" s="6">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D37" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="7">
-        <v>1989</v>
+        <v>1559</v>
       </c>
       <c r="H37" s="6">
         <v>2</v>
@@ -2261,10 +2265,10 @@
         <v>4</v>
       </c>
       <c r="J37" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" s="6">
         <v>3</v>
@@ -2274,13 +2278,11 @@
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="P37" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="6">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6">
         <v>2</v>
@@ -2289,35 +2291,33 @@
         <v>56</v>
       </c>
       <c r="D38" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G38" s="7">
-        <v>2223</v>
+        <v>2729</v>
       </c>
       <c r="H38" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J38" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K38" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L38" s="6">
-        <v>4</v>
-      </c>
-      <c r="M38" s="4">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="6">
@@ -2326,127 +2326,125 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="6">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B39" s="6">
         <v>1</v>
       </c>
       <c r="C39" s="6">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G39" s="7">
-        <v>2846</v>
+        <v>2027</v>
       </c>
       <c r="H39" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I39" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J39" s="6">
         <v>4</v>
       </c>
       <c r="K39" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M39" s="6">
         <v>1</v>
       </c>
-      <c r="N39" s="6"/>
+      <c r="N39" s="6">
+        <v>1</v>
+      </c>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="6">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6">
         <v>1</v>
       </c>
       <c r="C40" s="6">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D40" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="6">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G40" s="7">
-        <v>2651</v>
+        <v>2300</v>
       </c>
       <c r="H40" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" s="6">
         <v>5</v>
       </c>
       <c r="J40" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K40" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L40" s="6">
         <v>4</v>
       </c>
-      <c r="M40" s="4">
-        <v>1</v>
-      </c>
+      <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="4">
-        <v>1</v>
-      </c>
+      <c r="P40" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="6">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B41" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="6">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D41" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G41" s="7">
-        <v>1989</v>
+        <v>2106</v>
       </c>
       <c r="H41" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J41" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K41" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41" s="6">
         <v>3</v>
@@ -2456,40 +2454,38 @@
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="4">
-        <v>1</v>
-      </c>
+      <c r="P41" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="6">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
       </c>
       <c r="C42" s="6">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D42" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="6">
         <v>3</v>
       </c>
       <c r="F42" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G42" s="7">
-        <v>2340</v>
+        <v>2846</v>
       </c>
       <c r="H42" s="6">
         <v>3</v>
       </c>
       <c r="I42" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42" s="6">
         <v>2</v>
@@ -2506,111 +2502,113 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="6">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
       </c>
       <c r="C43" s="6">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D43" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G43" s="7">
-        <v>2261</v>
+        <v>2534</v>
       </c>
       <c r="H43" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I43" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K43" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43" s="6">
-        <v>5</v>
-      </c>
-      <c r="M43" s="6"/>
-      <c r="N43" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M43" s="6">
+        <v>1</v>
+      </c>
+      <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="6">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B44" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D44" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G44" s="7">
-        <v>2261</v>
+        <v>2144</v>
       </c>
       <c r="H44" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I44" s="6">
         <v>4</v>
       </c>
       <c r="J44" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K44" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L44" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" s="4"/>
-      <c r="N44" s="6"/>
+      <c r="N44" s="6">
+        <v>1</v>
+      </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="6">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6">
         <v>1</v>
       </c>
       <c r="C45" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D45" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G45" s="7">
-        <v>1872</v>
+        <v>2223</v>
       </c>
       <c r="H45" s="6">
         <v>2</v>
@@ -2619,10 +2617,10 @@
         <v>3</v>
       </c>
       <c r="J45" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K45" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45" s="6">
         <v>3</v>
@@ -2632,82 +2630,86 @@
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="6"/>
+      <c r="P45" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="6">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B46" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="6">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D46" s="6">
         <v>2</v>
       </c>
       <c r="E46" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="6">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G46" s="7">
-        <v>1872</v>
+        <v>2651</v>
       </c>
       <c r="H46" s="6">
         <v>4</v>
       </c>
       <c r="I46" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J46" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K46" s="6">
         <v>2</v>
       </c>
       <c r="L46" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M46" s="6">
         <v>1</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="6"/>
+      <c r="P46" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="6">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B47" s="6">
         <v>2</v>
       </c>
       <c r="C47" s="6">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D47" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="6">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G47" s="7">
-        <v>1715</v>
+        <v>1989</v>
       </c>
       <c r="H47" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J47" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K47" s="6">
         <v>2</v>
@@ -2726,107 +2728,99 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="6">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B48" s="6">
         <v>2</v>
       </c>
       <c r="C48" s="6">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D48" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G48" s="7">
-        <v>2691</v>
+        <v>1872</v>
       </c>
       <c r="H48" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J48" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K48" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48" s="6">
-        <v>4</v>
-      </c>
-      <c r="M48" s="4">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="4">
-        <v>1</v>
-      </c>
+      <c r="O48" s="6">
+        <v>1</v>
+      </c>
+      <c r="P48" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="6">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6">
         <v>1</v>
       </c>
       <c r="C49" s="6">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D49" s="6">
         <v>2</v>
       </c>
       <c r="E49" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" s="6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G49" s="7">
-        <v>5069</v>
+        <v>2183</v>
       </c>
       <c r="H49" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I49" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J49" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K49" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49" s="6">
-        <v>2</v>
-      </c>
-      <c r="M49" s="4">
-        <v>1</v>
-      </c>
-      <c r="N49" s="4">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
       <c r="O49" s="4"/>
-      <c r="P49" s="4">
-        <v>1</v>
-      </c>
+      <c r="P49" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="6">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B50" s="6">
         <v>1</v>
       </c>
       <c r="C50" s="6">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D50" s="6">
         <v>2</v>
@@ -2835,13 +2829,13 @@
         <v>2</v>
       </c>
       <c r="F50" s="6">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G50" s="7">
-        <v>3119</v>
+        <v>2729</v>
       </c>
       <c r="H50" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I50" s="6">
         <v>4</v>
@@ -2850,25 +2844,21 @@
         <v>3</v>
       </c>
       <c r="K50" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L50" s="6">
-        <v>2</v>
-      </c>
-      <c r="M50" s="4">
-        <v>1</v>
-      </c>
-      <c r="N50" s="4">
-        <v>1</v>
-      </c>
-      <c r="O50" s="6"/>
-      <c r="P50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+        <v>5</v>
+      </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="6">
+        <v>1</v>
+      </c>
+      <c r="P50" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="6">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B51" s="6">
         <v>1</v>
@@ -2877,161 +2867,163 @@
         <v>29</v>
       </c>
       <c r="D51" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G51" s="7">
-        <v>2963</v>
+        <v>2340</v>
       </c>
       <c r="H51" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J51" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" s="6">
         <v>3</v>
       </c>
-      <c r="M51" s="6"/>
+      <c r="M51" s="6">
+        <v>1</v>
+      </c>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="6">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B52" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="6">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D52" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G52" s="7">
-        <v>1989</v>
+        <v>2106</v>
       </c>
       <c r="H52" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I52" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J52" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K52" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L52" s="6">
-        <v>3</v>
-      </c>
-      <c r="M52" s="4">
-        <v>1</v>
-      </c>
-      <c r="N52" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="M52" s="4"/>
+      <c r="N52" s="6">
+        <v>1</v>
+      </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="6">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B53" s="6">
         <v>1</v>
       </c>
       <c r="C53" s="6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D53" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="6">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G53" s="7">
-        <v>2183</v>
+        <v>2261</v>
       </c>
       <c r="H53" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I53" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J53" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K53" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" s="6">
-        <v>2</v>
-      </c>
-      <c r="M53" s="4">
-        <v>1</v>
-      </c>
-      <c r="N53" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="M53" s="4"/>
+      <c r="N53" s="6">
+        <v>1</v>
+      </c>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="6">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B54" s="6">
         <v>1</v>
       </c>
       <c r="C54" s="6">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D54" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
       </c>
       <c r="F54" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54" s="7">
-        <v>2066</v>
+        <v>1989</v>
       </c>
       <c r="H54" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I54" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J54" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K54" s="6">
         <v>1</v>
       </c>
       <c r="L54" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M54" s="6">
         <v>1</v>
@@ -3040,42 +3032,42 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="6">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B55" s="6">
         <v>1</v>
       </c>
       <c r="C55" s="6">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D55" s="6">
         <v>1</v>
       </c>
       <c r="E55" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G55" s="7">
-        <v>2106</v>
+        <v>1559</v>
       </c>
       <c r="H55" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J55" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K55" s="6">
         <v>1</v>
       </c>
       <c r="L55" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" s="6">
         <v>1</v>
@@ -3084,15 +3076,15 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="6">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B56" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="6">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D56" s="6">
         <v>2</v>
@@ -3101,10 +3093,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="6">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G56" s="7">
-        <v>2651</v>
+        <v>2417</v>
       </c>
       <c r="H56" s="6">
         <v>3</v>
@@ -3113,10 +3105,10 @@
         <v>5</v>
       </c>
       <c r="J56" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K56" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L56" s="6">
         <v>3</v>
@@ -3124,216 +3116,216 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
-      <c r="P56" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="P56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="6">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B57" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="6">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D57" s="6">
         <v>2</v>
       </c>
       <c r="E57" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57" s="6">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G57" s="7">
-        <v>2846</v>
+        <v>1949</v>
       </c>
       <c r="H57" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I57" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J57" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K57" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L57" s="6">
-        <v>2</v>
-      </c>
-      <c r="M57" s="6"/>
-      <c r="N57" s="4">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M57" s="6">
+        <v>1</v>
+      </c>
+      <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="6">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="6">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B58" s="6">
         <v>1</v>
       </c>
       <c r="C58" s="6">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D58" s="6">
         <v>2</v>
       </c>
       <c r="E58" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" s="6">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G58" s="7">
-        <v>2808</v>
+        <v>3119</v>
       </c>
       <c r="H58" s="6">
-        <v>3</v>
-      </c>
-      <c r="I58" s="4">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I58" s="4"/>
       <c r="J58" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K58" s="6">
         <v>1</v>
       </c>
       <c r="L58" s="6">
-        <v>4</v>
-      </c>
-      <c r="M58" s="6"/>
-      <c r="N58" s="4">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M58" s="6">
+        <v>1</v>
+      </c>
+      <c r="N58" s="4"/>
       <c r="O58" s="4"/>
-      <c r="P58" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="P58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="6">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B59" s="6">
         <v>1</v>
       </c>
       <c r="C59" s="6">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D59" s="6">
         <v>2</v>
       </c>
       <c r="E59" s="6">
-        <v>3</v>
-      </c>
-      <c r="F59" s="4">
-        <v>21</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F59" s="4"/>
       <c r="G59" s="7">
-        <v>3587</v>
+        <v>2574</v>
       </c>
       <c r="H59" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I59" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J59" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K59" s="6">
         <v>1</v>
       </c>
       <c r="L59" s="6">
-        <v>3</v>
-      </c>
-      <c r="M59" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="M59" s="6">
+        <v>1</v>
+      </c>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
-      <c r="P59" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="P59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="6">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B60" s="6">
         <v>1</v>
       </c>
       <c r="C60" s="6">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D60" s="6">
         <v>1</v>
       </c>
       <c r="E60" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" s="6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G60" s="7">
-        <v>2925</v>
+        <v>2261</v>
       </c>
       <c r="H60" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J60" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K60" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60" s="6">
-        <v>4</v>
-      </c>
-      <c r="M60" s="4">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
-      <c r="P60" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+      <c r="P60" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="6">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B61" s="6">
         <v>1</v>
       </c>
       <c r="C61" s="6">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D61" s="6">
         <v>1</v>
       </c>
       <c r="E61" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G61" s="7">
-        <v>1521</v>
+        <v>2144</v>
       </c>
       <c r="H61" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I61" s="6">
         <v>4</v>
       </c>
       <c r="J61" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K61" s="6">
         <v>1</v>
@@ -3345,49 +3337,45 @@
         <v>1</v>
       </c>
       <c r="N61" s="4"/>
-      <c r="O61" s="4">
-        <v>1</v>
-      </c>
-      <c r="P61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="6">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B62" s="6">
         <v>1</v>
       </c>
       <c r="C62" s="6">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D62" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="6">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G62" s="7">
-        <v>2808</v>
+        <v>2183</v>
       </c>
       <c r="H62" s="6">
         <v>2</v>
       </c>
       <c r="I62" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J62" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K62" s="6">
         <v>1</v>
       </c>
       <c r="L62" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M62" s="6">
         <v>1</v>
@@ -3398,13 +3386,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="6">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B63" s="6">
         <v>1</v>
       </c>
       <c r="C63" s="6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D63" s="6">
         <v>2</v>
@@ -3413,68 +3401,66 @@
         <v>1</v>
       </c>
       <c r="F63" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G63" s="7">
-        <v>2183</v>
+        <v>1872</v>
       </c>
       <c r="H63" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J63" s="6">
         <v>1</v>
       </c>
       <c r="K63" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M63" s="6">
         <v>1</v>
       </c>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
-      <c r="P63" s="4">
-        <v>1</v>
-      </c>
+      <c r="P63" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="6">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B64" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="6">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D64" s="6">
         <v>2</v>
       </c>
       <c r="E64" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G64" s="7">
-        <v>1559</v>
+        <v>1872</v>
       </c>
       <c r="H64" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I64" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J64" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K64" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64" s="6">
         <v>3</v>
@@ -3488,179 +3474,185 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="6">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B65" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="6">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D65" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="6">
         <v>1</v>
       </c>
       <c r="G65" s="7">
-        <v>2027</v>
+        <v>1715</v>
       </c>
       <c r="H65" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I65" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J65" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K65" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M65" s="6">
         <v>1</v>
       </c>
-      <c r="N65" s="4">
-        <v>1</v>
-      </c>
+      <c r="N65" s="4"/>
       <c r="O65" s="4"/>
-      <c r="P65" s="6"/>
+      <c r="P65" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="6">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B66" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" s="6">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D66" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="6">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G66" s="7">
-        <v>2106</v>
+        <v>2691</v>
       </c>
       <c r="H66" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I66" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J66" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K66" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M66" s="6">
         <v>1</v>
       </c>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
-      <c r="P66" s="6"/>
+      <c r="P66" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="6">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B67" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" s="6">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D67" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" s="6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G67" s="7">
-        <v>2534</v>
+        <v>2027</v>
       </c>
       <c r="H67" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I67" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J67" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K67" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L67" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M67" s="6">
         <v>1</v>
       </c>
-      <c r="N67" s="6"/>
+      <c r="N67" s="6">
+        <v>1</v>
+      </c>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="6">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B68" s="6">
         <v>1</v>
       </c>
       <c r="C68" s="6">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D68" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G68" s="7">
-        <v>2223</v>
+        <v>5069</v>
       </c>
       <c r="H68" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I68" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J68" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K68" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M68" s="6">
         <v>1</v>
       </c>
-      <c r="N68" s="6"/>
+      <c r="N68" s="6">
+        <v>1</v>
+      </c>
       <c r="O68" s="4"/>
       <c r="P68" s="6">
         <v>1</v>
@@ -3668,69 +3660,67 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="6">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B69" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D69" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="6">
         <v>3</v>
       </c>
       <c r="F69" s="6">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G69" s="7">
-        <v>1872</v>
+        <v>2417</v>
       </c>
       <c r="H69" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J69" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K69" s="6">
         <v>1</v>
       </c>
       <c r="L69" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
-      <c r="O69" s="4">
-        <v>1</v>
-      </c>
+      <c r="O69" s="4"/>
       <c r="P69" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="6">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B70" s="6">
         <v>1</v>
       </c>
       <c r="C70" s="6">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D70" s="6">
         <v>2</v>
       </c>
       <c r="E70" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G70" s="7">
-        <v>2183</v>
+        <v>3510</v>
       </c>
       <c r="H70" s="6">
         <v>4</v>
@@ -3739,13 +3729,13 @@
         <v>5</v>
       </c>
       <c r="J70" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K70" s="6">
         <v>1</v>
       </c>
       <c r="L70" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -3754,60 +3744,64 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="6">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B71" s="6">
         <v>1</v>
       </c>
       <c r="C71" s="6">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D71" s="6">
         <v>2</v>
       </c>
       <c r="E71" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="6">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G71" s="7">
-        <v>1989</v>
+        <v>3119</v>
       </c>
       <c r="H71" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J71" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K71" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M71" s="6">
         <v>1</v>
       </c>
-      <c r="N71" s="6"/>
+      <c r="N71" s="6">
+        <v>1</v>
+      </c>
       <c r="O71" s="4"/>
-      <c r="P71" s="6"/>
+      <c r="P71" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="6">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B72" s="6">
         <v>1</v>
       </c>
       <c r="C72" s="6">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D72" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="6">
         <v>2</v>
@@ -3816,39 +3810,39 @@
         <v>1</v>
       </c>
       <c r="G72" s="7">
-        <v>1559</v>
+        <v>2495</v>
       </c>
       <c r="H72" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J72" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K72" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L72" s="6">
-        <v>2</v>
-      </c>
-      <c r="M72" s="4">
-        <v>1</v>
-      </c>
-      <c r="N72" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="M72" s="4"/>
+      <c r="N72" s="6">
+        <v>1</v>
+      </c>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="6">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B73" s="6">
         <v>1</v>
       </c>
       <c r="C73" s="6">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D73" s="6">
         <v>2</v>
@@ -3857,107 +3851,107 @@
         <v>2</v>
       </c>
       <c r="F73" s="6">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G73" s="7">
-        <v>3119</v>
+        <v>3470</v>
       </c>
       <c r="H73" s="6">
-        <v>2</v>
-      </c>
-      <c r="I73" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="I73" s="6">
+        <v>5</v>
+      </c>
       <c r="J73" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K73" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L73" s="6">
-        <v>5</v>
-      </c>
-      <c r="M73" s="4">
-        <v>1</v>
-      </c>
-      <c r="N73" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="M73" s="4"/>
+      <c r="N73" s="6">
+        <v>1</v>
+      </c>
       <c r="O73" s="4"/>
-      <c r="P73" s="4">
-        <v>1</v>
-      </c>
+      <c r="P73" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="6">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B74" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" s="6">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D74" s="6">
         <v>2</v>
       </c>
       <c r="E74" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="F74" s="6">
+        <v>2</v>
+      </c>
       <c r="G74" s="7">
-        <v>2574</v>
+        <v>2027</v>
       </c>
       <c r="H74" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I74" s="6">
         <v>3</v>
       </c>
       <c r="J74" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K74" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L74" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M74" s="6">
         <v>1</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
-      <c r="P74" s="4">
-        <v>1</v>
-      </c>
+      <c r="P74" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="6">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B75" s="6">
         <v>1</v>
       </c>
       <c r="C75" s="6">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D75" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
       </c>
       <c r="F75" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G75" s="7">
-        <v>2144</v>
+        <v>2846</v>
       </c>
       <c r="H75" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I75" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J75" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K75" s="6">
         <v>1</v>
@@ -3974,13 +3968,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="6">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B76" s="6">
         <v>1</v>
       </c>
       <c r="C76" s="6">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -3989,16 +3983,16 @@
         <v>1</v>
       </c>
       <c r="F76" s="6">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G76" s="7">
-        <v>2183</v>
+        <v>1949</v>
       </c>
       <c r="H76" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J76" s="6">
         <v>1</v>
@@ -4007,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M76" s="6">
         <v>1</v>
@@ -4018,67 +4012,69 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="6">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B77" s="6">
         <v>1</v>
       </c>
       <c r="C77" s="6">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D77" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" s="6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G77" s="7">
-        <v>2417</v>
+        <v>1598</v>
       </c>
       <c r="H77" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J77" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K77" s="6">
         <v>1</v>
       </c>
       <c r="L77" s="6">
-        <v>4</v>
-      </c>
-      <c r="M77" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="M77" s="6">
+        <v>1</v>
+      </c>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="6">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B78" s="6">
         <v>1</v>
       </c>
       <c r="C78" s="6">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D78" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" s="6">
         <v>2</v>
       </c>
       <c r="F78" s="6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G78" s="7">
-        <v>3510</v>
+        <v>2183</v>
       </c>
       <c r="H78" s="6">
         <v>4</v>
@@ -4093,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -4102,57 +4098,59 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="6">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B79" s="6">
         <v>1</v>
       </c>
       <c r="C79" s="6">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D79" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G79" s="7">
-        <v>2846</v>
+        <v>1598</v>
       </c>
       <c r="H79" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I79" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J79" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K79" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L79" s="6">
-        <v>3</v>
-      </c>
-      <c r="M79" s="4">
-        <v>1</v>
-      </c>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="M79" s="4"/>
+      <c r="N79" s="6">
+        <v>1</v>
+      </c>
+      <c r="O79" s="6">
+        <v>1</v>
+      </c>
       <c r="P79" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="6">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B80" s="6">
         <v>1</v>
       </c>
       <c r="C80" s="6">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
@@ -4161,25 +4159,25 @@
         <v>1</v>
       </c>
       <c r="F80" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" s="7">
-        <v>1949</v>
+        <v>1638</v>
       </c>
       <c r="H80" s="6">
         <v>1</v>
       </c>
       <c r="I80" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J80" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" s="6">
         <v>1</v>
       </c>
       <c r="L80" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M80" s="6">
         <v>1</v>
@@ -4190,13 +4188,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="6">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B81" s="6">
         <v>1</v>
       </c>
       <c r="C81" s="6">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -4205,69 +4203,71 @@
         <v>2</v>
       </c>
       <c r="F81" s="6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G81" s="7">
-        <v>1598</v>
+        <v>2612</v>
       </c>
       <c r="H81" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J81" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K81" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M81" s="6">
         <v>1</v>
       </c>
       <c r="N81" s="4"/>
-      <c r="O81" s="6"/>
+      <c r="O81" s="6">
+        <v>1</v>
+      </c>
       <c r="P81" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="6">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B82" s="6">
         <v>1</v>
       </c>
       <c r="C82" s="6">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D82" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="6">
         <v>2</v>
       </c>
       <c r="F82" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G82" s="7">
-        <v>2183</v>
+        <v>2808</v>
       </c>
       <c r="H82" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J82" s="6">
         <v>3</v>
       </c>
       <c r="K82" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L82" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
@@ -4276,40 +4276,40 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="6">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B83" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D83" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G83" s="7">
-        <v>1638</v>
+        <v>2183</v>
       </c>
       <c r="H83" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J83" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K83" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L83" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M83" s="6">
         <v>1</v>
@@ -4334,9 +4334,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="55.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="81.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="73.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="32.71928571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
